--- a/src/main/webapp/WEB-INF/jsp/egovframework/com/uss/ion/bnt/example/excelBNDT.xlsx
+++ b/src/main/webapp/WEB-INF/jsp/egovframework/com/uss/ion/bnt/example/excelBNDT.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\platform4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-4.0.0-64bit\workspace\egovframework-all-in-one-AllNew\src\main\webapp\WEB-INF\jsp\egovframework\com\uss\ion\bnt\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A980230C-D88D-47A0-8D5E-9D9B5566EE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AB45B8-7746-407F-B0FE-3EF333873FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="615" yWindow="14505" windowWidth="15345" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -50,43 +42,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20190103</t>
+    <t>20220103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20190105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190106</t>
-  </si>
-  <si>
-    <t>20190107</t>
-  </si>
-  <si>
-    <t>20190108</t>
-  </si>
-  <si>
-    <t>20190109</t>
-  </si>
-  <si>
-    <t>20190110</t>
-  </si>
-  <si>
-    <t>20190111</t>
-  </si>
-  <si>
-    <t>20190112</t>
+    <t>20220104</t>
+  </si>
+  <si>
+    <t>20220105</t>
+  </si>
+  <si>
+    <t>20220106</t>
+  </si>
+  <si>
+    <t>20220107</t>
+  </si>
+  <si>
+    <t>20220108</t>
+  </si>
+  <si>
+    <t>20220109</t>
+  </si>
+  <si>
+    <t>20220110</t>
+  </si>
+  <si>
+    <t>20220111</t>
+  </si>
+  <si>
+    <t>20220112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,7 +508,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -529,7 +519,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
